--- a/BackTest/2019-11-12 BackTest WET.xlsx
+++ b/BackTest/2019-11-12 BackTest WET.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.9100000000000019</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-14.60674157303367</v>
+      </c>
       <c r="L12" t="n">
         <v>5.259</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.9100000000000019</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-24.39024390243888</v>
+      </c>
       <c r="L13" t="n">
         <v>5.246</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.020000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-12.08791208791211</v>
+      </c>
       <c r="L14" t="n">
         <v>5.237</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-24.21052631578949</v>
+      </c>
       <c r="L15" t="n">
         <v>5.218</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.150000000000002</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-21.64948453608244</v>
+      </c>
       <c r="L16" t="n">
         <v>5.2</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.190000000000002</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>7.042253521126852</v>
+      </c>
       <c r="L17" t="n">
         <v>5.175</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.340000000000003</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-43.28358208955219</v>
+      </c>
       <c r="L18" t="n">
         <v>5.165</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.400000000000002</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-37.14285714285722</v>
+      </c>
       <c r="L19" t="n">
         <v>5.142</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.460000000000002</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-21.42857142857146</v>
+      </c>
       <c r="L20" t="n">
         <v>5.11</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.660000000000002</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>11.99999999999998</v>
+      </c>
       <c r="L21" t="n">
         <v>5.118</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.810000000000002</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-6.666666666666719</v>
+      </c>
       <c r="L22" t="n">
         <v>5.112</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.810000000000002</v>
       </c>
       <c r="K23" t="n">
-        <v>-10.61452513966482</v>
+        <v>-21.51898734177212</v>
       </c>
       <c r="L23" t="n">
         <v>5.106</v>
@@ -1466,7 +1488,7 @@
         <v>1.820000000000002</v>
       </c>
       <c r="K24" t="n">
-        <v>-14.4508670520231</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L24" t="n">
         <v>5.090000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>1.820000000000002</v>
       </c>
       <c r="K25" t="n">
-        <v>-15.78947368421054</v>
+        <v>-19.40298507462699</v>
       </c>
       <c r="L25" t="n">
         <v>5.082000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.880000000000003</v>
       </c>
       <c r="K26" t="n">
-        <v>-14.4508670520231</v>
+        <v>-4.347826086956555</v>
       </c>
       <c r="L26" t="n">
         <v>5.075000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>1.970000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>-10.61452513966482</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>5.081000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>1.980000000000002</v>
       </c>
       <c r="K28" t="n">
-        <v>6.666666666666698</v>
+        <v>24.13793103448285</v>
       </c>
       <c r="L28" t="n">
         <v>5.101000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>2.090000000000003</v>
       </c>
       <c r="K29" t="n">
-        <v>-14.08450704225352</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L29" t="n">
         <v>5.104000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>2.190000000000003</v>
       </c>
       <c r="K30" t="n">
-        <v>-8.724832214765087</v>
+        <v>-1.886792452830145</v>
       </c>
       <c r="L30" t="n">
         <v>5.123</v>
@@ -1809,7 +1831,7 @@
         <v>2.190000000000003</v>
       </c>
       <c r="K31" t="n">
-        <v>5.426356589147304</v>
+        <v>36.84210526315797</v>
       </c>
       <c r="L31" t="n">
         <v>5.122</v>
@@ -1860,7 +1882,7 @@
         <v>2.290000000000004</v>
       </c>
       <c r="K32" t="n">
-        <v>-1.449275362318872</v>
+        <v>8.333333333333318</v>
       </c>
       <c r="L32" t="n">
         <v>5.126</v>
@@ -1911,7 +1933,7 @@
         <v>2.390000000000004</v>
       </c>
       <c r="K33" t="n">
-        <v>5.405405405405403</v>
+        <v>22.8070175438597</v>
       </c>
       <c r="L33" t="n">
         <v>5.140000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>2.430000000000004</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7092198581560748</v>
+        <v>27.86885245901643</v>
       </c>
       <c r="L34" t="n">
         <v>5.157000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>2.460000000000004</v>
       </c>
       <c r="K35" t="n">
-        <v>4.41176470588238</v>
+        <v>13.79310344827583</v>
       </c>
       <c r="L35" t="n">
         <v>5.171000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>2.480000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>2.25563909774431</v>
+        <v>1.960784313725442</v>
       </c>
       <c r="L36" t="n">
         <v>5.181000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>2.540000000000004</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7407407407407242</v>
+        <v>-7.142857142857132</v>
       </c>
       <c r="L37" t="n">
         <v>5.176000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>2.540000000000004</v>
       </c>
       <c r="K38" t="n">
-        <v>13.33333333333333</v>
+        <v>15.55555555555558</v>
       </c>
       <c r="L38" t="n">
         <v>5.172000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>2.590000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>4.201680672268963</v>
+        <v>-20</v>
       </c>
       <c r="L39" t="n">
         <v>5.174000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>2.640000000000004</v>
       </c>
       <c r="K40" t="n">
-        <v>5.084745762711821</v>
+        <v>-28.88888888888899</v>
       </c>
       <c r="L40" t="n">
         <v>5.161000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>2.690000000000004</v>
       </c>
       <c r="K41" t="n">
-        <v>-18.44660194174758</v>
+        <v>-20</v>
       </c>
       <c r="L41" t="n">
         <v>5.143000000000002</v>
@@ -2370,7 +2392,7 @@
         <v>2.740000000000004</v>
       </c>
       <c r="K42" t="n">
-        <v>1.075268817204276</v>
+        <v>-37.1428571428574</v>
       </c>
       <c r="L42" t="n">
         <v>5.140000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>2.780000000000004</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.09278350515466</v>
+        <v>-60.00000000000031</v>
       </c>
       <c r="L43" t="n">
         <v>5.123000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>2.840000000000004</v>
       </c>
       <c r="K44" t="n">
-        <v>1.960784313725531</v>
+        <v>-31.57894736842109</v>
       </c>
       <c r="L44" t="n">
         <v>5.108000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>2.840000000000004</v>
       </c>
       <c r="K45" t="n">
-        <v>1.960784313725531</v>
+        <v>-38.88888888888876</v>
       </c>
       <c r="L45" t="n">
         <v>5.096000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>2.860000000000005</v>
       </c>
       <c r="K46" t="n">
-        <v>-6.122448979591874</v>
+        <v>-31.25000000000005</v>
       </c>
       <c r="L46" t="n">
         <v>5.080000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>2.890000000000004</v>
       </c>
       <c r="K47" t="n">
-        <v>-19.56521739130428</v>
+        <v>-37.14285714285705</v>
       </c>
       <c r="L47" t="n">
         <v>5.067000000000002</v>
@@ -2676,7 +2698,7 @@
         <v>2.890000000000004</v>
       </c>
       <c r="K48" t="n">
-        <v>-18.68131868131863</v>
+        <v>-26.66666666666663</v>
       </c>
       <c r="L48" t="n">
         <v>5.054000000000002</v>
@@ -2727,7 +2749,7 @@
         <v>2.940000000000004</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.176470588235267</v>
+        <v>6.666666666666825</v>
       </c>
       <c r="L49" t="n">
         <v>5.051000000000002</v>
@@ -2778,7 +2800,7 @@
         <v>2.960000000000004</v>
       </c>
       <c r="K50" t="n">
-        <v>-16.88311688311695</v>
+        <v>18.51851851851842</v>
       </c>
       <c r="L50" t="n">
         <v>5.051000000000002</v>
@@ -2829,7 +2851,7 @@
         <v>3.030000000000005</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.142857142857189</v>
+        <v>24.13793103448278</v>
       </c>
       <c r="L51" t="n">
         <v>5.063000000000002</v>
@@ -2880,7 +2902,7 @@
         <v>3.030000000000005</v>
       </c>
       <c r="K52" t="n">
-        <v>5.405405405405403</v>
+        <v>43.99999999999997</v>
       </c>
       <c r="L52" t="n">
         <v>5.070000000000002</v>
@@ -2931,7 +2953,7 @@
         <v>3.060000000000005</v>
       </c>
       <c r="K53" t="n">
-        <v>-13.43283582089562</v>
+        <v>9.09090909090887</v>
       </c>
       <c r="L53" t="n">
         <v>5.078000000000003</v>
@@ -2982,7 +3004,7 @@
         <v>3.150000000000006</v>
       </c>
       <c r="K54" t="n">
-        <v>-5.555555555555549</v>
+        <v>35.48387096774188</v>
       </c>
       <c r="L54" t="n">
         <v>5.089000000000003</v>
@@ -3033,7 +3055,7 @@
         <v>3.170000000000005</v>
       </c>
       <c r="K55" t="n">
-        <v>1.40845070422532</v>
+        <v>48.38709677419358</v>
       </c>
       <c r="L55" t="n">
         <v>5.102000000000003</v>
@@ -3084,7 +3106,7 @@
         <v>3.200000000000006</v>
       </c>
       <c r="K56" t="n">
-        <v>2.777777777777836</v>
+        <v>67.74193548387065</v>
       </c>
       <c r="L56" t="n">
         <v>5.120000000000003</v>
@@ -3135,7 +3157,7 @@
         <v>3.210000000000005</v>
       </c>
       <c r="K57" t="n">
-        <v>13.43283582089547</v>
+        <v>68.74999999999967</v>
       </c>
       <c r="L57" t="n">
         <v>5.142000000000003</v>
@@ -3186,7 +3208,7 @@
         <v>3.210000000000005</v>
       </c>
       <c r="K58" t="n">
-        <v>13.43283582089547</v>
+        <v>62.96296296296262</v>
       </c>
       <c r="L58" t="n">
         <v>5.164000000000003</v>
@@ -3237,7 +3259,7 @@
         <v>3.230000000000005</v>
       </c>
       <c r="K59" t="n">
-        <v>18.74999999999998</v>
+        <v>62.96296296296315</v>
       </c>
       <c r="L59" t="n">
         <v>5.179000000000004</v>
@@ -3288,7 +3310,7 @@
         <v>3.230000000000005</v>
       </c>
       <c r="K60" t="n">
-        <v>28.813559322034</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L60" t="n">
         <v>5.196000000000003</v>
@@ -3339,7 +3361,7 @@
         <v>3.250000000000004</v>
       </c>
       <c r="K61" t="n">
-        <v>42.85714285714285</v>
+        <v>54.54545454545465</v>
       </c>
       <c r="L61" t="n">
         <v>5.208000000000004</v>
@@ -3390,7 +3412,7 @@
         <v>3.280000000000005</v>
       </c>
       <c r="K62" t="n">
-        <v>40.74074074074079</v>
+        <v>81.81818181818218</v>
       </c>
       <c r="L62" t="n">
         <v>5.223000000000003</v>
@@ -3441,7 +3463,7 @@
         <v>3.300000000000004</v>
       </c>
       <c r="K63" t="n">
-        <v>53.84615384615385</v>
+        <v>73.33333333333366</v>
       </c>
       <c r="L63" t="n">
         <v>5.243000000000003</v>
@@ -3492,7 +3514,7 @@
         <v>3.330000000000005</v>
       </c>
       <c r="K64" t="n">
-        <v>51.02040816326529</v>
+        <v>75.00000000000043</v>
       </c>
       <c r="L64" t="n">
         <v>5.257000000000003</v>
@@ -3543,7 +3565,7 @@
         <v>3.350000000000004</v>
       </c>
       <c r="K65" t="n">
-        <v>52.94117647058817</v>
+        <v>73.33333333333366</v>
       </c>
       <c r="L65" t="n">
         <v>5.271000000000003</v>
@@ -3594,7 +3616,7 @@
         <v>3.370000000000004</v>
       </c>
       <c r="K66" t="n">
-        <v>52.94117647058844</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L66" t="n">
         <v>5.280000000000003</v>
@@ -3645,7 +3667,7 @@
         <v>3.370000000000004</v>
       </c>
       <c r="K67" t="n">
-        <v>62.50000000000002</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L67" t="n">
         <v>5.288000000000002</v>
@@ -3696,7 +3718,7 @@
         <v>3.440000000000004</v>
       </c>
       <c r="K68" t="n">
-        <v>67.27272727272732</v>
+        <v>80.95238095238128</v>
       </c>
       <c r="L68" t="n">
         <v>5.303000000000003</v>
@@ -3747,7 +3769,7 @@
         <v>3.540000000000004</v>
       </c>
       <c r="K69" t="n">
-        <v>36.66666666666659</v>
+        <v>22.58064516129016</v>
       </c>
       <c r="L69" t="n">
         <v>5.310000000000002</v>
@@ -3798,7 +3820,7 @@
         <v>3.630000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>49.2537313432836</v>
+        <v>36.84210526315782</v>
       </c>
       <c r="L70" t="n">
         <v>5.326000000000002</v>
@@ -3849,7 +3871,7 @@
         <v>3.630000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>43.33333333333332</v>
+        <v>31.4285714285713</v>
       </c>
       <c r="L71" t="n">
         <v>5.340000000000002</v>
@@ -3900,7 +3922,7 @@
         <v>3.630000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>43.33333333333332</v>
+        <v>27.27272727272723</v>
       </c>
       <c r="L72" t="n">
         <v>5.351000000000002</v>
@@ -3951,7 +3973,7 @@
         <v>3.630000000000004</v>
       </c>
       <c r="K73" t="n">
-        <v>50.8771929824562</v>
+        <v>19.99999999999988</v>
       </c>
       <c r="L73" t="n">
         <v>5.360000000000002</v>
@@ -4002,7 +4024,7 @@
         <v>3.650000000000005</v>
       </c>
       <c r="K74" t="n">
-        <v>44.00000000000003</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="L74" t="n">
         <v>5.368000000000002</v>
@@ -4053,7 +4075,7 @@
         <v>3.690000000000005</v>
       </c>
       <c r="K75" t="n">
-        <v>46.15384615384623</v>
+        <v>37.49999999999989</v>
       </c>
       <c r="L75" t="n">
         <v>5.378000000000002</v>
@@ -4104,7 +4126,7 @@
         <v>3.690000000000005</v>
       </c>
       <c r="K76" t="n">
-        <v>42.85714285714291</v>
+        <v>37.49999999999989</v>
       </c>
       <c r="L76" t="n">
         <v>5.390000000000002</v>

--- a/BackTest/2019-11-12 BackTest WET.xlsx
+++ b/BackTest/2019-11-12 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>65105974.287</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>65105974.287</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>4.75</v>
       </c>
-      <c r="K3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>65106079.287</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
         <v>4.75</v>
       </c>
-      <c r="K4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>65138876.6784</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="J5" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>4.75</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,18 +603,23 @@
         <v>65138876.6784</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>4.81</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,16 +646,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,18 +683,23 @@
         <v>65092301.77030001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>4.73</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -728,18 +724,23 @@
         <v>65220131.19010001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,18 +765,23 @@
         <v>65220236.19010001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>4.76</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,18 +806,23 @@
         <v>65220236.19010001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>4.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,18 +847,23 @@
         <v>65425154.2229</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>4.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -874,16 +890,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,16 +929,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -946,16 +968,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -982,16 +1007,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1018,16 +1046,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1054,16 +1085,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1090,16 +1124,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,16 +1163,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1162,16 +1202,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1198,16 +1241,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1234,16 +1280,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1270,16 +1319,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1306,16 +1358,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,16 +1397,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1378,16 +1436,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,16 +1475,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1450,16 +1514,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,16 +1553,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1522,16 +1592,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1558,16 +1631,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1594,16 +1670,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1630,16 +1709,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1666,16 +1748,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1702,16 +1787,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1738,16 +1826,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1774,16 +1865,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1810,16 +1904,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1846,16 +1943,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1882,16 +1982,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1918,16 +2021,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1954,16 +2060,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1990,16 +2099,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2026,16 +2138,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2062,16 +2177,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2098,16 +2216,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2134,16 +2255,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2170,16 +2294,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2206,16 +2333,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2242,16 +2372,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2278,16 +2411,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2314,16 +2450,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2350,16 +2489,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2386,16 +2528,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2422,16 +2567,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2458,16 +2606,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2494,16 +2645,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2530,16 +2684,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2566,16 +2723,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2602,16 +2762,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2638,16 +2801,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2672,18 +2838,23 @@
         <v>67234983.40781154</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.112894736842105</v>
+      </c>
       <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>1.012631578947368</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2708,18 +2879,15 @@
         <v>67279639.42591153</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2746,16 +2914,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2782,16 +2947,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2818,16 +2980,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2852,18 +3011,15 @@
         <v>68483787.8241996</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2888,18 +3044,15 @@
         <v>68557765.8344996</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2924,18 +3077,15 @@
         <v>68186660.4172996</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2960,18 +3110,15 @@
         <v>67826903.0156996</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2996,18 +3143,15 @@
         <v>67826903.0156996</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3034,16 +3178,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3070,16 +3211,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3106,16 +3244,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3140,18 +3275,15 @@
         <v>68011672.1133996</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3178,16 +3310,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3214,16 +3343,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3250,16 +3376,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3286,16 +3409,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3322,16 +3442,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,16 +3475,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3392,18 +3506,15 @@
         <v>64411684.68545582</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3428,18 +3539,15 @@
         <v>64411684.68545582</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3466,16 +3574,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3502,16 +3607,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3538,16 +3640,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3572,18 +3671,15 @@
         <v>64296214.76955581</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3610,16 +3706,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3646,16 +3739,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3680,18 +3770,15 @@
         <v>64751863.58915582</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3716,18 +3803,15 @@
         <v>64751963.58915582</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3754,16 +3838,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3790,16 +3871,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3826,16 +3904,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3862,16 +3937,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3898,16 +3970,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3934,16 +4003,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3970,16 +4036,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4006,16 +4069,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4042,16 +4102,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4078,16 +4135,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4114,16 +4168,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4148,18 +4199,15 @@
         <v>64293477.78632471</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4186,16 +4234,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4222,16 +4267,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4258,16 +4300,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4292,18 +4331,15 @@
         <v>64283541.47532471</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4330,16 +4366,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4366,16 +4399,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4400,18 +4430,15 @@
         <v>55808729.38432471</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4436,18 +4463,15 @@
         <v>55806729.38432471</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4474,16 +4498,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4510,16 +4531,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4544,18 +4562,15 @@
         <v>56464702.97938291</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4580,18 +4595,15 @@
         <v>60273243.30301994</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4618,16 +4630,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4654,16 +4663,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4690,16 +4696,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4726,16 +4729,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4762,16 +4762,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4798,16 +4795,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4834,16 +4828,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4870,18 +4861,15 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest WET.xlsx
+++ b/BackTest/2019-11-12 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>65105974.287</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>65105974.287</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>4.75</v>
@@ -521,7 +521,7 @@
         <v>65106079.287</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4.75</v>
@@ -562,7 +562,7 @@
         <v>65138876.6784</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4.79</v>
@@ -603,7 +603,7 @@
         <v>65138876.6784</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>4.81</v>
@@ -644,9 +644,11 @@
         <v>65064694.72170001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.81</v>
+      </c>
       <c r="J7" t="n">
         <v>4.75</v>
       </c>
@@ -683,7 +685,7 @@
         <v>65092301.77030001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>4.73</v>
@@ -724,7 +726,7 @@
         <v>65220131.19010001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4.75</v>
@@ -765,7 +767,7 @@
         <v>65220236.19010001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>4.76</v>
@@ -806,7 +808,7 @@
         <v>65220236.19010001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>4.8</v>
@@ -847,7 +849,7 @@
         <v>65425154.2229</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>4.8</v>
@@ -888,9 +890,11 @@
         <v>65424421.9512</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.88</v>
+      </c>
       <c r="J13" t="n">
         <v>4.75</v>
       </c>
@@ -927,9 +931,11 @@
         <v>65424971.9512</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.77</v>
+      </c>
       <c r="J14" t="n">
         <v>4.75</v>
       </c>
@@ -966,9 +972,11 @@
         <v>65424971.9512</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.9</v>
+      </c>
       <c r="J15" t="n">
         <v>4.75</v>
       </c>
@@ -2838,7 +2846,7 @@
         <v>67234983.40781154</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
@@ -2846,15 +2854,13 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.112894736842105</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.012631578947368</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2879,11 +2885,17 @@
         <v>67279639.42591153</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2915,8 +2927,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2948,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2978,15 +3002,23 @@
         <v>68465496.8160996</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>1.068684210526316</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.012631578947368</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3011,7 +3043,7 @@
         <v>68483787.8241996</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3044,7 +3076,7 @@
         <v>68557765.8344996</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3077,7 +3109,7 @@
         <v>68186660.4172996</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3110,7 +3142,7 @@
         <v>67826903.0156996</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3143,7 +3175,7 @@
         <v>67826903.0156996</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3176,7 +3208,7 @@
         <v>68053897.98039959</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3209,7 +3241,7 @@
         <v>68048521.54819959</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3242,7 +3274,7 @@
         <v>68053819.6266996</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3275,7 +3307,7 @@
         <v>68011672.1133996</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3308,7 +3340,7 @@
         <v>64207202.7718996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3341,7 +3373,7 @@
         <v>64207302.7718996</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3374,7 +3406,7 @@
         <v>64191939.7279996</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3407,7 +3439,7 @@
         <v>64289012.0041469</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3440,7 +3472,7 @@
         <v>64201229.09325582</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3473,7 +3505,7 @@
         <v>64201229.09325582</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3506,7 +3538,7 @@
         <v>64411684.68545582</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3539,7 +3571,7 @@
         <v>64411684.68545582</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3572,7 +3604,7 @@
         <v>64412838.51235582</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3605,7 +3637,7 @@
         <v>64476352.20555582</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3638,7 +3670,7 @@
         <v>64369418.27885582</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3671,7 +3703,7 @@
         <v>64296214.76955581</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3704,7 +3736,7 @@
         <v>64860022.93465582</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3737,7 +3769,7 @@
         <v>64860022.93465582</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3770,7 +3802,7 @@
         <v>64751863.58915582</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3803,7 +3835,7 @@
         <v>64751963.58915582</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3836,7 +3868,7 @@
         <v>64828644.65294778</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4199,7 +4231,7 @@
         <v>64293477.78632471</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4232,7 +4264,7 @@
         <v>64291836.67752471</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4265,7 +4297,7 @@
         <v>64283441.47532471</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4298,7 +4330,7 @@
         <v>64283441.47532471</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4331,7 +4363,7 @@
         <v>64283541.47532471</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4364,7 +4396,7 @@
         <v>43638473.04502471</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4397,7 +4429,7 @@
         <v>55808729.38432471</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4430,7 +4462,7 @@
         <v>55808729.38432471</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4463,7 +4495,7 @@
         <v>55806729.38432471</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4496,7 +4528,7 @@
         <v>55921149.56692471</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4529,7 +4561,7 @@
         <v>56003479.74952471</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4562,7 +4594,7 @@
         <v>56464702.97938291</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4595,7 +4627,7 @@
         <v>60273243.30301994</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4628,7 +4660,7 @@
         <v>60273243.30301994</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4760,7 +4792,7 @@
         <v>61699436.48358184</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4859,7 +4891,7 @@
         <v>62179908.74728184</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4870,6 +4902,6 @@
       <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest WET.xlsx
+++ b/BackTest/2019-11-12 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>65106079.287</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>4.75</v>
       </c>
@@ -562,11 +560,9 @@
         <v>65138876.6784</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>4.75</v>
       </c>
@@ -603,19 +599,11 @@
         <v>65138876.6784</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +632,11 @@
         <v>65064694.72170001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +665,11 @@
         <v>65092301.77030001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +698,11 @@
         <v>65220131.19010001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +731,11 @@
         <v>65220236.19010001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +764,11 @@
         <v>65220236.19010001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +797,11 @@
         <v>65425154.2229</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +830,11 @@
         <v>65424421.9512</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +863,11 @@
         <v>65424971.9512</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +896,11 @@
         <v>65424971.9512</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,17 +929,11 @@
         <v>65502811.5994</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1055,14 +965,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1091,17 +995,11 @@
         <v>65660455.2522</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1130,17 +1028,11 @@
         <v>65701563.0203</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1169,17 +1061,11 @@
         <v>66029317.7224</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1208,17 +1094,11 @@
         <v>66029317.7224</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1247,17 +1127,11 @@
         <v>65944851.893</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1286,17 +1160,11 @@
         <v>65944851.893</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1325,17 +1193,11 @@
         <v>65429412.7933</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1367,14 +1229,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1406,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1445,14 +1295,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1484,14 +1328,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1523,14 +1361,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1562,14 +1394,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1601,14 +1427,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1640,14 +1460,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1679,14 +1493,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1718,14 +1526,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1757,14 +1559,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1796,14 +1592,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1835,14 +1625,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1874,14 +1658,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1913,14 +1691,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1952,14 +1724,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1991,14 +1757,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2030,14 +1790,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2069,14 +1823,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2108,14 +1856,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2147,14 +1889,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2186,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2222,17 +1952,11 @@
         <v>65249259.1327813</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2261,17 +1985,11 @@
         <v>65439775.97798131</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2300,17 +2018,11 @@
         <v>66427235.79508131</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2339,17 +2051,11 @@
         <v>66319304.48388131</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2378,17 +2084,11 @@
         <v>66334404.48388131</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2417,17 +2117,11 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2456,17 +2150,11 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2495,17 +2183,11 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2534,17 +2216,11 @@
         <v>67272612.77911152</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2573,17 +2249,11 @@
         <v>65749540.61591152</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2612,17 +2282,11 @@
         <v>65878513.58861152</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2651,17 +2315,11 @@
         <v>66135422.03011152</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2690,17 +2348,11 @@
         <v>67108259.74801152</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2729,17 +2381,11 @@
         <v>67198259.74801153</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2771,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2810,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2849,14 +2483,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2888,14 +2516,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2927,14 +2549,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2966,14 +2582,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3002,23 +2612,15 @@
         <v>68465496.8160996</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>1.068684210526316</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.012631578947368</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3043,7 +2645,7 @@
         <v>68483787.8241996</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3076,7 +2678,7 @@
         <v>68557765.8344996</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3109,7 +2711,7 @@
         <v>68186660.4172996</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3142,7 +2744,7 @@
         <v>67826903.0156996</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3175,7 +2777,7 @@
         <v>67826903.0156996</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3208,7 +2810,7 @@
         <v>68053897.98039959</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3241,7 +2843,7 @@
         <v>68048521.54819959</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3274,7 +2876,7 @@
         <v>68053819.6266996</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3307,7 +2909,7 @@
         <v>68011672.1133996</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3340,7 +2942,7 @@
         <v>64207202.7718996</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3373,7 +2975,7 @@
         <v>64207302.7718996</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3406,7 +3008,7 @@
         <v>64191939.7279996</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3538,7 +3140,7 @@
         <v>64411684.68545582</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3571,7 +3173,7 @@
         <v>64411684.68545582</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3604,7 +3206,7 @@
         <v>64412838.51235582</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3637,7 +3239,7 @@
         <v>64476352.20555582</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3670,7 +3272,7 @@
         <v>64369418.27885582</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3703,7 +3305,7 @@
         <v>64296214.76955581</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3736,7 +3338,7 @@
         <v>64860022.93465582</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3769,7 +3371,7 @@
         <v>64860022.93465582</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3868,7 +3470,7 @@
         <v>64828644.65294778</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4231,7 +3833,7 @@
         <v>64293477.78632471</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4264,7 +3866,7 @@
         <v>64291836.67752471</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4297,7 +3899,7 @@
         <v>64283441.47532471</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4330,7 +3932,7 @@
         <v>64283441.47532471</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4363,7 +3965,7 @@
         <v>64283541.47532471</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4396,7 +3998,7 @@
         <v>43638473.04502471</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4429,7 +4031,7 @@
         <v>55808729.38432471</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4462,7 +4064,7 @@
         <v>55808729.38432471</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4495,7 +4097,7 @@
         <v>55806729.38432471</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4528,7 +4130,7 @@
         <v>55921149.56692471</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4561,7 +4163,7 @@
         <v>56003479.74952471</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4594,7 +4196,7 @@
         <v>56464702.97938291</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4627,7 +4229,7 @@
         <v>60273243.30301994</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4660,7 +4262,7 @@
         <v>60273243.30301994</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4792,7 +4394,7 @@
         <v>61699436.48358184</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4891,7 +4493,7 @@
         <v>62179908.74728184</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4902,6 +4504,6 @@
       <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest WET.xlsx
+++ b/BackTest/2019-11-12 BackTest WET.xlsx
@@ -521,9 +521,11 @@
         <v>65106079.287</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.75</v>
+      </c>
       <c r="J4" t="n">
         <v>4.75</v>
       </c>
@@ -560,9 +562,11 @@
         <v>65138876.6784</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.79</v>
+      </c>
       <c r="J5" t="n">
         <v>4.75</v>
       </c>
@@ -599,11 +603,19 @@
         <v>65138876.6784</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -632,11 +644,19 @@
         <v>65064694.72170001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -665,11 +685,19 @@
         <v>65092301.77030001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -698,11 +726,19 @@
         <v>65220131.19010001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -731,11 +767,19 @@
         <v>65220236.19010001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -764,11 +808,19 @@
         <v>65220236.19010001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -797,11 +849,19 @@
         <v>65425154.2229</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -830,11 +890,19 @@
         <v>65424421.9512</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -863,11 +931,17 @@
         <v>65424971.9512</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -896,11 +970,17 @@
         <v>65424971.9512</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -929,11 +1009,17 @@
         <v>65502811.5994</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -965,8 +1051,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -995,11 +1087,17 @@
         <v>65660455.2522</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1028,11 +1126,17 @@
         <v>65701563.0203</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1061,11 +1165,17 @@
         <v>66029317.7224</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1094,11 +1204,17 @@
         <v>66029317.7224</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1127,11 +1243,17 @@
         <v>65944851.893</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1160,11 +1282,17 @@
         <v>65944851.893</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1321,17 @@
         <v>65429412.7933</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1229,8 +1363,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1402,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1295,8 +1441,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1328,8 +1480,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1361,8 +1519,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1394,8 +1558,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1427,8 +1597,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1460,8 +1636,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1493,8 +1675,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1526,8 +1714,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1559,8 +1753,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1592,8 +1792,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1625,8 +1831,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1658,8 +1870,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1691,8 +1909,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1724,8 +1948,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1757,8 +1987,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1790,8 +2026,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1823,8 +2065,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1856,8 +2104,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1889,8 +2143,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1922,8 +2182,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +2218,17 @@
         <v>65249259.1327813</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +2257,17 @@
         <v>65439775.97798131</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2296,17 @@
         <v>66427235.79508131</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2335,17 @@
         <v>66319304.48388131</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2084,11 +2374,17 @@
         <v>66334404.48388131</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2117,11 +2413,17 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +2452,17 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2491,17 @@
         <v>66762656.67821153</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2216,11 +2530,17 @@
         <v>67272612.77911152</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2249,11 +2569,17 @@
         <v>65749540.61591152</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2282,11 +2608,17 @@
         <v>65878513.58861152</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2315,11 +2647,17 @@
         <v>66135422.03011152</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2686,17 @@
         <v>67108259.74801152</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2725,17 @@
         <v>67198259.74801153</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2767,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2450,8 +2806,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2845,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2516,8 +2884,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2923,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2579,15 +2959,23 @@
         <v>69037223.24616644</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>1.131842105263158</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.012631578947368</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2612,7 +3000,7 @@
         <v>68465496.8160996</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2645,7 +3033,7 @@
         <v>68483787.8241996</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2678,7 +3066,7 @@
         <v>68557765.8344996</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2711,7 +3099,7 @@
         <v>68186660.4172996</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2744,7 +3132,7 @@
         <v>67826903.0156996</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2942,7 +3330,7 @@
         <v>64207202.7718996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3041,7 +3429,7 @@
         <v>64289012.0041469</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3107,7 +3495,7 @@
         <v>64201229.09325582</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3272,7 +3660,7 @@
         <v>64369418.27885582</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3305,7 +3693,7 @@
         <v>64296214.76955581</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3371,7 +3759,7 @@
         <v>64860022.93465582</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3437,7 +3825,7 @@
         <v>64751963.58915582</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3503,7 +3891,7 @@
         <v>64828570.13252471</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3536,7 +3924,7 @@
         <v>64917917.28562471</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3569,7 +3957,7 @@
         <v>64871879.78562471</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3602,7 +3990,7 @@
         <v>64871879.78562471</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3635,7 +4023,7 @@
         <v>64871346.59742471</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4427,7 +4815,7 @@
         <v>62060643.79388184</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4460,7 +4848,7 @@
         <v>62147839.21348184</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4493,7 +4881,7 @@
         <v>62179908.74728184</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>

--- a/BackTest/2019-11-12 BackTest WET.xlsx
+++ b/BackTest/2019-11-12 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>106</v>
       </c>
       <c r="G2" t="n">
-        <v>65105974.287</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>40745.1885</v>
       </c>
       <c r="G3" t="n">
-        <v>65105974.287</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
         <v>4.75</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>105</v>
       </c>
       <c r="G4" t="n">
-        <v>65106079.287</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4.75</v>
       </c>
       <c r="I4" t="n">
         <v>4.75</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>32797.3914</v>
       </c>
       <c r="G5" t="n">
-        <v>65138876.6784</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4.79</v>
       </c>
       <c r="I5" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="J5" t="n">
         <v>4.75</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,15 @@
         <v>39267.5622</v>
       </c>
       <c r="G6" t="n">
-        <v>65138876.6784</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +613,15 @@
         <v>74181.9567</v>
       </c>
       <c r="G7" t="n">
-        <v>65064694.72170001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +643,15 @@
         <v>27607.0486</v>
       </c>
       <c r="G8" t="n">
-        <v>65092301.77030001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +673,15 @@
         <v>127829.4198</v>
       </c>
       <c r="G9" t="n">
-        <v>65220131.19010001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +703,15 @@
         <v>105</v>
       </c>
       <c r="G10" t="n">
-        <v>65220236.19010001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +733,15 @@
         <v>208.3333333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>65220236.19010001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +763,15 @@
         <v>204918.0328</v>
       </c>
       <c r="G12" t="n">
-        <v>65425154.2229</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +793,15 @@
         <v>732.2717</v>
       </c>
       <c r="G13" t="n">
-        <v>65424421.9512</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,24 +823,15 @@
         <v>550</v>
       </c>
       <c r="G14" t="n">
-        <v>65424971.9512</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -967,24 +853,15 @@
         <v>36128.1904</v>
       </c>
       <c r="G15" t="n">
-        <v>65424971.9512</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1006,24 +883,15 @@
         <v>77839.6482</v>
       </c>
       <c r="G16" t="n">
-        <v>65502811.5994</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1045,24 +913,15 @@
         <v>8777.6661</v>
       </c>
       <c r="G17" t="n">
-        <v>65511589.2655</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1084,24 +943,15 @@
         <v>148865.9867</v>
       </c>
       <c r="G18" t="n">
-        <v>65660455.2522</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1123,24 +973,15 @@
         <v>41107.7681</v>
       </c>
       <c r="G19" t="n">
-        <v>65701563.0203</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1162,24 +1003,15 @@
         <v>327754.7021</v>
       </c>
       <c r="G20" t="n">
-        <v>66029317.7224</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1201,24 +1033,15 @@
         <v>37401.0022</v>
       </c>
       <c r="G21" t="n">
-        <v>66029317.7224</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1240,24 +1063,15 @@
         <v>84465.8294</v>
       </c>
       <c r="G22" t="n">
-        <v>65944851.893</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1279,24 +1093,15 @@
         <v>210.638</v>
       </c>
       <c r="G23" t="n">
-        <v>65944851.893</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1318,24 +1123,15 @@
         <v>515439.0997</v>
       </c>
       <c r="G24" t="n">
-        <v>65429412.7933</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1357,24 +1153,15 @@
         <v>40161.06</v>
       </c>
       <c r="G25" t="n">
-        <v>65389251.7333</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1396,24 +1183,15 @@
         <v>41107.7681</v>
       </c>
       <c r="G26" t="n">
-        <v>65389251.7333</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1435,24 +1213,15 @@
         <v>229.8816</v>
       </c>
       <c r="G27" t="n">
-        <v>65389481.6149</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1474,24 +1243,15 @@
         <v>38745.8899</v>
       </c>
       <c r="G28" t="n">
-        <v>65350735.725</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1513,24 +1273,15 @@
         <v>62769.2519</v>
       </c>
       <c r="G29" t="n">
-        <v>65350735.725</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1552,24 +1303,15 @@
         <v>26683.13008130081</v>
       </c>
       <c r="G30" t="n">
-        <v>65377418.8550813</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1591,24 +1333,15 @@
         <v>515584.348</v>
       </c>
       <c r="G31" t="n">
-        <v>64861834.50708131</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1630,24 +1363,15 @@
         <v>550</v>
       </c>
       <c r="G32" t="n">
-        <v>64862384.50708131</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1669,24 +1393,15 @@
         <v>38960</v>
       </c>
       <c r="G33" t="n">
-        <v>64862384.50708131</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1708,24 +1423,15 @@
         <v>30643.7</v>
       </c>
       <c r="G34" t="n">
-        <v>64862384.50708131</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1747,24 +1453,15 @@
         <v>30306</v>
       </c>
       <c r="G35" t="n">
-        <v>64862384.50708131</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1786,24 +1483,15 @@
         <v>90.3</v>
       </c>
       <c r="G36" t="n">
-        <v>64862384.50708131</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1825,24 +1513,15 @@
         <v>594.0666</v>
       </c>
       <c r="G37" t="n">
-        <v>64861790.44048131</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1864,24 +1543,15 @@
         <v>46364.9081</v>
       </c>
       <c r="G38" t="n">
-        <v>64815425.5323813</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1903,24 +1573,15 @@
         <v>5307.511</v>
       </c>
       <c r="G39" t="n">
-        <v>64820733.0433813</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1942,24 +1603,15 @@
         <v>13890.0969</v>
       </c>
       <c r="G40" t="n">
-        <v>64806842.9464813</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1981,24 +1633,15 @@
         <v>32020.222</v>
       </c>
       <c r="G41" t="n">
-        <v>64774822.7244813</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2020,24 +1663,15 @@
         <v>103</v>
       </c>
       <c r="G42" t="n">
-        <v>64774925.7244813</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2059,24 +1693,15 @@
         <v>19449.9829</v>
       </c>
       <c r="G43" t="n">
-        <v>64774925.7244813</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2098,24 +1723,15 @@
         <v>34763.089</v>
       </c>
       <c r="G44" t="n">
-        <v>64809688.8134813</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2137,24 +1753,15 @@
         <v>108159.3455</v>
       </c>
       <c r="G45" t="n">
-        <v>64917848.1589813</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2176,24 +1783,15 @@
         <v>103</v>
       </c>
       <c r="G46" t="n">
-        <v>64917848.1589813</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2215,24 +1813,15 @@
         <v>331410.9738</v>
       </c>
       <c r="G47" t="n">
-        <v>65249259.1327813</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2254,24 +1843,15 @@
         <v>190516.8452</v>
       </c>
       <c r="G48" t="n">
-        <v>65439775.97798131</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2293,24 +1873,15 @@
         <v>987459.8171</v>
       </c>
       <c r="G49" t="n">
-        <v>66427235.79508131</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2332,24 +1903,15 @@
         <v>107931.3112</v>
       </c>
       <c r="G50" t="n">
-        <v>66319304.48388131</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2371,24 +1933,15 @@
         <v>15100</v>
       </c>
       <c r="G51" t="n">
-        <v>66334404.48388131</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2410,24 +1963,15 @@
         <v>428252.1943302144</v>
       </c>
       <c r="G52" t="n">
-        <v>66762656.67821153</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2449,24 +1993,15 @@
         <v>514253.8351</v>
       </c>
       <c r="G53" t="n">
-        <v>66762656.67821153</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2488,24 +2023,15 @@
         <v>7500</v>
       </c>
       <c r="G54" t="n">
-        <v>66762656.67821153</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2527,24 +2053,15 @@
         <v>509956.1009</v>
       </c>
       <c r="G55" t="n">
-        <v>67272612.77911152</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2566,24 +2083,15 @@
         <v>1523072.1632</v>
       </c>
       <c r="G56" t="n">
-        <v>65749540.61591152</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2605,24 +2113,15 @@
         <v>128972.9727</v>
       </c>
       <c r="G57" t="n">
-        <v>65878513.58861152</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2644,24 +2143,15 @@
         <v>256908.4415</v>
       </c>
       <c r="G58" t="n">
-        <v>66135422.03011152</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2683,24 +2173,15 @@
         <v>972837.7179</v>
       </c>
       <c r="G59" t="n">
-        <v>67108259.74801152</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2722,24 +2203,15 @@
         <v>90000</v>
       </c>
       <c r="G60" t="n">
-        <v>67198259.74801153</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2761,24 +2233,15 @@
         <v>57568.7917</v>
       </c>
       <c r="G61" t="n">
-        <v>67140690.95631152</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2800,24 +2263,15 @@
         <v>20141.849</v>
       </c>
       <c r="G62" t="n">
-        <v>67160832.80531153</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2839,24 +2293,15 @@
         <v>74150.60249999999</v>
       </c>
       <c r="G63" t="n">
-        <v>67234983.40781154</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2878,24 +2323,15 @@
         <v>44656.0181</v>
       </c>
       <c r="G64" t="n">
-        <v>67279639.42591153</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2917,24 +2353,15 @@
         <v>1213249.9614</v>
       </c>
       <c r="G65" t="n">
-        <v>68492889.38731153</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2956,26 +2383,15 @@
         <v>544333.8588548984</v>
       </c>
       <c r="G66" t="n">
-        <v>69037223.24616644</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1.131842105263158</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.012631578947368</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2997,18 +2413,15 @@
         <v>571726.4300668328</v>
       </c>
       <c r="G67" t="n">
-        <v>68465496.8160996</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3030,18 +2443,15 @@
         <v>18291.0081</v>
       </c>
       <c r="G68" t="n">
-        <v>68483787.8241996</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3063,18 +2473,15 @@
         <v>73978.01029999999</v>
       </c>
       <c r="G69" t="n">
-        <v>68557765.8344996</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3096,18 +2503,15 @@
         <v>371105.4172</v>
       </c>
       <c r="G70" t="n">
-        <v>68186660.4172996</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3129,18 +2533,15 @@
         <v>359757.4016</v>
       </c>
       <c r="G71" t="n">
-        <v>67826903.0156996</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3162,18 +2563,15 @@
         <v>218985.634</v>
       </c>
       <c r="G72" t="n">
-        <v>67826903.0156996</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3195,18 +2593,15 @@
         <v>226994.9647</v>
       </c>
       <c r="G73" t="n">
-        <v>68053897.98039959</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3228,18 +2623,15 @@
         <v>5376.4322</v>
       </c>
       <c r="G74" t="n">
-        <v>68048521.54819959</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3261,18 +2653,15 @@
         <v>5298.0785</v>
       </c>
       <c r="G75" t="n">
-        <v>68053819.6266996</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3294,18 +2683,15 @@
         <v>42147.5133</v>
       </c>
       <c r="G76" t="n">
-        <v>68011672.1133996</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3327,18 +2713,15 @@
         <v>3804469.3415</v>
       </c>
       <c r="G77" t="n">
-        <v>64207202.7718996</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3360,18 +2743,15 @@
         <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>64207302.7718996</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3393,18 +2773,15 @@
         <v>15363.0439</v>
       </c>
       <c r="G79" t="n">
-        <v>64191939.7279996</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3426,18 +2803,15 @@
         <v>97072.2761473077</v>
       </c>
       <c r="G80" t="n">
-        <v>64289012.0041469</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3459,18 +2833,15 @@
         <v>87782.91089108911</v>
       </c>
       <c r="G81" t="n">
-        <v>64201229.09325582</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3492,18 +2863,15 @@
         <v>87494.65346534654</v>
       </c>
       <c r="G82" t="n">
-        <v>64201229.09325582</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3525,18 +2893,15 @@
         <v>210455.5922</v>
       </c>
       <c r="G83" t="n">
-        <v>64411684.68545582</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3558,18 +2923,15 @@
         <v>453030.1596</v>
       </c>
       <c r="G84" t="n">
-        <v>64411684.68545582</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3591,18 +2953,15 @@
         <v>1153.8269</v>
       </c>
       <c r="G85" t="n">
-        <v>64412838.51235582</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3624,18 +2983,15 @@
         <v>63513.6932</v>
       </c>
       <c r="G86" t="n">
-        <v>64476352.20555582</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3657,18 +3013,15 @@
         <v>106933.9267</v>
       </c>
       <c r="G87" t="n">
-        <v>64369418.27885582</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3690,18 +3043,15 @@
         <v>73203.50930000001</v>
       </c>
       <c r="G88" t="n">
-        <v>64296214.76955581</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3723,18 +3073,15 @@
         <v>563808.1651</v>
       </c>
       <c r="G89" t="n">
-        <v>64860022.93465582</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3756,18 +3103,15 @@
         <v>178775.5922</v>
       </c>
       <c r="G90" t="n">
-        <v>64860022.93465582</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3789,18 +3133,15 @@
         <v>108159.3455</v>
       </c>
       <c r="G91" t="n">
-        <v>64751863.58915582</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3822,18 +3163,15 @@
         <v>100</v>
       </c>
       <c r="G92" t="n">
-        <v>64751963.58915582</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3855,18 +3193,15 @@
         <v>76681.06379196941</v>
       </c>
       <c r="G93" t="n">
-        <v>64828644.65294778</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3888,18 +3223,15 @@
         <v>74.52042307692308</v>
       </c>
       <c r="G94" t="n">
-        <v>64828570.13252471</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3921,18 +3253,15 @@
         <v>89347.1531</v>
       </c>
       <c r="G95" t="n">
-        <v>64917917.28562471</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3954,18 +3283,15 @@
         <v>46037.5</v>
       </c>
       <c r="G96" t="n">
-        <v>64871879.78562471</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3987,18 +3313,15 @@
         <v>79299.2277</v>
       </c>
       <c r="G97" t="n">
-        <v>64871879.78562471</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4020,18 +3343,15 @@
         <v>533.1882000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>64871346.59742471</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4053,18 +3373,15 @@
         <v>21602.7852</v>
       </c>
       <c r="G99" t="n">
-        <v>64849743.81222471</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4086,18 +3403,15 @@
         <v>644210.0097000001</v>
       </c>
       <c r="G100" t="n">
-        <v>64205533.80252471</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4119,18 +3433,15 @@
         <v>89385.0926</v>
       </c>
       <c r="G101" t="n">
-        <v>64294918.89512471</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4152,18 +3463,15 @@
         <v>1541.1088</v>
       </c>
       <c r="G102" t="n">
-        <v>64293377.78632471</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4185,18 +3493,15 @@
         <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>64293477.78632471</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4218,18 +3523,15 @@
         <v>582.1917</v>
       </c>
       <c r="G104" t="n">
-        <v>64293477.78632471</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4251,18 +3553,15 @@
         <v>1641.1088</v>
       </c>
       <c r="G105" t="n">
-        <v>64291836.67752471</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4284,18 +3583,15 @@
         <v>8395.2022</v>
       </c>
       <c r="G106" t="n">
-        <v>64283441.47532471</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4317,18 +3613,15 @@
         <v>8395.2022</v>
       </c>
       <c r="G107" t="n">
-        <v>64283441.47532471</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4350,18 +3643,15 @@
         <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>64283541.47532471</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4383,18 +3673,15 @@
         <v>20645068.4303</v>
       </c>
       <c r="G109" t="n">
-        <v>43638473.04502471</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4416,18 +3703,15 @@
         <v>12170256.3393</v>
       </c>
       <c r="G110" t="n">
-        <v>55808729.38432471</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4449,18 +3733,15 @@
         <v>311898.0193</v>
       </c>
       <c r="G111" t="n">
-        <v>55808729.38432471</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4482,18 +3763,15 @@
         <v>2000</v>
       </c>
       <c r="G112" t="n">
-        <v>55806729.38432471</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4515,18 +3793,15 @@
         <v>114420.1826</v>
       </c>
       <c r="G113" t="n">
-        <v>55921149.56692471</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4548,18 +3823,15 @@
         <v>82330.1826</v>
       </c>
       <c r="G114" t="n">
-        <v>56003479.74952471</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4581,18 +3853,15 @@
         <v>461223.2298582061</v>
       </c>
       <c r="G115" t="n">
-        <v>56464702.97938291</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4614,18 +3883,15 @@
         <v>3808540.323637032</v>
       </c>
       <c r="G116" t="n">
-        <v>60273243.30301994</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4647,18 +3913,15 @@
         <v>80614.43054285714</v>
       </c>
       <c r="G117" t="n">
-        <v>60273243.30301994</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4680,18 +3943,15 @@
         <v>14533.4775</v>
       </c>
       <c r="G118" t="n">
-        <v>60258709.82551994</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4713,18 +3973,15 @@
         <v>82484.10279999999</v>
       </c>
       <c r="G119" t="n">
-        <v>60258709.82551994</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4746,18 +4003,15 @@
         <v>1397497.919261905</v>
       </c>
       <c r="G120" t="n">
-        <v>61656207.74478184</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4779,18 +4033,15 @@
         <v>43228.7388</v>
       </c>
       <c r="G121" t="n">
-        <v>61699436.48358184</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4812,18 +4063,15 @@
         <v>361207.3103</v>
       </c>
       <c r="G122" t="n">
-        <v>62060643.79388184</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4845,18 +4093,15 @@
         <v>87195.41959999999</v>
       </c>
       <c r="G123" t="n">
-        <v>62147839.21348184</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4878,18 +4123,15 @@
         <v>32069.5338</v>
       </c>
       <c r="G124" t="n">
-        <v>62179908.74728184</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
